--- a/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.191802406544307</v>
+        <v>-2.283599837872865</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.607325736478106</v>
+        <v>-2.394299995144782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.997251621088915</v>
+        <v>-1.981619368874263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.603657446307992</v>
+        <v>-5.543727110114117</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4146120281719011</v>
+        <v>-0.3990774706012264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3412793158649691</v>
+        <v>-0.3089253068967828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4232058872908728</v>
+        <v>-0.3852119568810882</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4281220240593006</v>
+        <v>-0.4262273329329707</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.444631440119426</v>
+        <v>4.254387758202027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.122781550343766</v>
+        <v>6.37542243562284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.448815956937849</v>
+        <v>4.504745036574514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.409720340785857</v>
+        <v>1.427500209883239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.328851673059636</v>
+        <v>1.520080191676068</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.262131076370341</v>
+        <v>1.363897076569194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.390491851262076</v>
+        <v>1.445332480373288</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.168135401640949</v>
+        <v>0.1509395950112287</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.327321162155065</v>
+        <v>-3.472752500116104</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.8672330160796</v>
+        <v>-2.734429443010999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.351403075037382</v>
+        <v>-3.362212402481818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.749298513784883</v>
+        <v>-4.164196143417008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4594993848141746</v>
+        <v>-0.4712598876789095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.340473141110692</v>
+        <v>-0.3464954029131305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4955367194904784</v>
+        <v>-0.4897773797189706</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3340185268588877</v>
+        <v>-0.3614623360738874</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.946829503214759</v>
+        <v>3.564264411297692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.861715583694693</v>
+        <v>5.307631275903492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.094017263266428</v>
+        <v>3.429933470295036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.240771132188215</v>
+        <v>3.043163506446813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.099576190120889</v>
+        <v>1.009867541316694</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9891404235641142</v>
+        <v>1.150134666947296</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8048411946140779</v>
+        <v>0.9583849218163647</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4706886946491354</v>
+        <v>0.4197819869875374</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.46290899982699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7892433648814035</v>
+        <v>-0.7892433648814007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5600418347824653</v>
@@ -849,7 +849,7 @@
         <v>0.06002688737916008</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05171210561162078</v>
+        <v>-0.05171210561162061</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7193412256937924</v>
+        <v>-1.001628068485064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.526448236029545</v>
+        <v>-6.495231465314627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.959151329067381</v>
+        <v>-4.15357721229547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.968667406082257</v>
+        <v>-5.898404038785504</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1174612885207839</v>
+        <v>-0.1417941170889558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4779029973782378</v>
+        <v>-0.4821706987658104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4771724477869605</v>
+        <v>-0.4552820359071538</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3555117917722103</v>
+        <v>-0.3559744449325212</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.791292078834319</v>
+        <v>9.394953313888433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.198204103559705</v>
+        <v>2.689536790938111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.672302975708087</v>
+        <v>6.312383222130184</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.124378846068753</v>
+        <v>5.375814308192158</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.833138729194981</v>
+        <v>1.697443108974905</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.294273021606551</v>
+        <v>0.2727651145562038</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.072712938177249</v>
+        <v>0.981157726597755</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3699717685495076</v>
+        <v>0.4188747076211413</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.432408678128085</v>
+        <v>-2.394186118551043</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.218768062939915</v>
+        <v>-0.9715831550413973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.244919876858014</v>
+        <v>-1.300425825854308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.724644999450568</v>
+        <v>-5.728341827245505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2778682053029184</v>
+        <v>-0.2712325185380075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1057165729584289</v>
+        <v>-0.08508332701359184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1681938279193933</v>
+        <v>-0.155912383940997</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3506843073797494</v>
+        <v>-0.352186626032931</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.778235173914141</v>
+        <v>2.919361833401307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.323848058299969</v>
+        <v>5.362366855803892</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.995606094781895</v>
+        <v>4.24782854391764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.1793931599347353</v>
+        <v>-0.300409117297218</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.398801608685747</v>
+        <v>0.4288068698646365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5357124708804474</v>
+        <v>0.5449742709533313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5976020098542699</v>
+        <v>0.6633099677632229</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.008984077244334721</v>
+        <v>-0.02289086071319091</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.420907335196774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09527193046519056</v>
+        <v>0.09527193046518778</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03698427905644671</v>
@@ -1049,7 +1049,7 @@
         <v>0.2779099264630339</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.005312819331952477</v>
+        <v>0.005312819331952321</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.412502606721535</v>
+        <v>-3.426209833730878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.08012703884883</v>
+        <v>1.275170424678617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9237875872036054</v>
+        <v>-1.052034358357645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.602638067706547</v>
+        <v>-3.619270146749024</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3267913172394956</v>
+        <v>-0.3300046852576024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0892812036806306</v>
+        <v>0.1221030278518576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.09433982749738068</v>
+        <v>-0.1078890323731358</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1761717146044967</v>
+        <v>-0.1762795700029737</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.031048288984494</v>
+        <v>4.186917275876584</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.720460839528068</v>
+        <v>8.59853210890218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.568797864443059</v>
+        <v>5.661022345088455</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.853640037932454</v>
+        <v>4.102273192601865</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7081746513845514</v>
+        <v>0.6980847215574862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.289848402971105</v>
+        <v>1.275861833354748</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7563959966615081</v>
+        <v>0.8219855692073582</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.250923797214135</v>
+        <v>0.268236177543249</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.3611134280226113</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.524699353887258</v>
+        <v>1.524699353887257</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.553185434287768</v>
+        <v>0.4390114078694946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.333192996022623</v>
+        <v>-1.65017476805158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.855407798810116</v>
+        <v>-1.121487718219318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.528820734089663</v>
+        <v>5.494864559912458</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07591674157886409</v>
+        <v>0.03565024335512698</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1223953528574448</v>
+        <v>-0.1489661159547681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1772524342682008</v>
+        <v>-0.116903507641356</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3907142598172657</v>
+        <v>0.3637675938142653</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.665079347333013</v>
+        <v>6.846650310752871</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.738809625424381</v>
+        <v>6.637732240852324</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.58021274658019</v>
+        <v>5.823596826593597</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.23277021584203</v>
+        <v>15.81636847684967</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.303283220101574</v>
+        <v>2.484038938185534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.248444071142534</v>
+        <v>1.238821813669009</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.325446032355458</v>
+        <v>1.426650179799527</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.529661088184934</v>
+        <v>3.992426076552623</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07130487842906241</v>
+        <v>-0.07587887228861896</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5233484219883681</v>
+        <v>0.558767836462879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3413638946375206</v>
+        <v>0.334233056523853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8303492853961745</v>
+        <v>-0.7261936028701272</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.007739361193600971</v>
+        <v>-0.01007822026345498</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04954832445386497</v>
+        <v>0.05392900096356849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04318046621526271</v>
+        <v>0.04033520211447114</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05783843354937732</v>
+        <v>-0.05030247790393816</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.708831037801588</v>
+        <v>2.620726420809967</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.563278993747689</v>
+        <v>3.708359137684861</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.97914066902476</v>
+        <v>3.119579344421175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.407973848082181</v>
+        <v>2.330080662726621</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4475689977847996</v>
+        <v>0.4299824095044646</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4105733045846066</v>
+        <v>0.428824956913016</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4493533665595432</v>
+        <v>0.4871446534417614</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1924717655932144</v>
+        <v>0.1835654673382763</v>
       </c>
     </row>
     <row r="25">
